--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Salesforce_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Salesforce_DE.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB71EE8-B922-4830-B338-8F8B1EEAADBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03303EF6-9BA0-4F82-9A4B-39639F2F17EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="11370" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="6285" windowWidth="18255" windowHeight="5385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="field_type">Specifications!$I$7:$I$24,Specifications!$M$7:$M$24,Specifications!$Q$7:$Q$24,Specifications!$Y$7:$Y$24,Specifications!$U$7:$U$24,Specifications!$U$27:$U$35,Specifications!$Y$27:$Y$35,Specifications!$Q$27:$Q$35,Specifications!$M$27:$M$35,Specifications!$I$27:$I$35</definedName>
+    <definedName name="field_type">Specifications!$I$9:$I$29,Specifications!$M$9:$M$29,Specifications!$Q$9:$Q$29,Specifications!$Y$9:$Y$29,Specifications!$U$9:$U$29,Specifications!$U$32:$U$37,Specifications!$Y$32:$Y$37,Specifications!$Q$32:$Q$37,Specifications!$M$32:$M$37,Specifications!$I$32:$I$37</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="79">
   <si>
     <t>Website</t>
   </si>
@@ -123,12 +123,6 @@
     <t>Salesforce: Account</t>
   </si>
   <si>
-    <t>custom 1</t>
-  </si>
-  <si>
-    <t>custom1__c</t>
-  </si>
-  <si>
     <t>custom 2</t>
   </si>
   <si>
@@ -250,6 +244,27 @@
   </si>
   <si>
     <t>Notizen</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>(= Felder mit automatischem Wert)</t>
+  </si>
+  <si>
+    <t>Beispiel Nicht-benötigtes Feld</t>
+  </si>
+  <si>
+    <t>Nicht benötigt</t>
+  </si>
+  <si>
+    <t>Nicht Benötigt</t>
+  </si>
+  <si>
+    <t>Beispiel Pflichtfeld</t>
+  </si>
+  <si>
+    <t>Pflichfeld</t>
   </si>
 </sst>
 </file>
@@ -363,25 +378,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="55">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -614,64 +616,10 @@
       <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
       <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
@@ -684,28 +632,6 @@
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
@@ -902,19 +828,6 @@
       <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
@@ -979,19 +892,6 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color rgb="FFFE6C36"/>
       </left>
       <right style="thick">
@@ -1116,10 +1016,10 @@
         <color theme="4" tint="0.59996337778862885"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1130,9 +1030,7 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1143,31 +1041,20 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1178,41 +1065,6 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
       <bottom style="thick">
         <color theme="4" tint="0.59996337778862885"/>
       </bottom>
@@ -1222,15 +1074,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -1239,412 +1092,135 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
+  <dxfs count="49">
     <dxf>
       <font>
         <b val="0"/>
@@ -2203,11 +1779,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="70"/>
-      <tableStyleElement type="headerRow" dxfId="69"/>
-      <tableStyleElement type="firstColumn" dxfId="68"/>
-      <tableStyleElement type="firstRowStripe" dxfId="67"/>
-      <tableStyleElement type="secondRowStripe" dxfId="66"/>
+      <tableStyleElement type="wholeTable" dxfId="48"/>
+      <tableStyleElement type="headerRow" dxfId="47"/>
+      <tableStyleElement type="firstColumn" dxfId="46"/>
+      <tableStyleElement type="firstRowStripe" dxfId="45"/>
+      <tableStyleElement type="secondRowStripe" dxfId="44"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2312,13 +1888,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2679,10 +2255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:AG38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="O3" sqref="O3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2704,9 +2280,9 @@
     <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2715,61 +2291,61 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="45"/>
-      <c r="K2" s="45"/>
+    <row r="2" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
-    <row r="3" spans="1:25" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="G3" s="102" t="s">
+      <c r="E3" s="30"/>
+      <c r="G3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="O3" s="102" t="s">
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="O3" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="S3" s="99" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="100"/>
-      <c r="U3" s="101"/>
-      <c r="W3" s="99" t="s">
-        <v>65</v>
-      </c>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="101"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="S3" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="69"/>
+      <c r="U3" s="70"/>
+      <c r="W3" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="70"/>
     </row>
-    <row r="4" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
+    <row r="4" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74" t="s">
-        <v>37</v>
+      <c r="B5" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58" t="s">
+        <v>35</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>22</v>
@@ -2799,962 +2375,1016 @@
       <c r="Q5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="75" t="s">
+      <c r="S5" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="76" t="s">
+      <c r="T5" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="77" t="s">
+      <c r="U5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="75" t="s">
+      <c r="W5" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="76" t="s">
+      <c r="X5" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" s="77" t="s">
+      <c r="Y5" s="61" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="38"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="9"/>
+    <row r="6" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="G6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="8"/>
       <c r="L6" s="3"/>
       <c r="M6" s="9"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="16"/>
-      <c r="S6" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" s="79"/>
-      <c r="W6" s="85"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="9"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="63"/>
+      <c r="W6" s="62"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="86"/>
+      <c r="Y6" s="63"/>
     </row>
-    <row r="7" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
-      <c r="G7" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" s="53"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55"/>
-      <c r="S7" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="U7" s="79"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="79"/>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="54"/>
+      <c r="E7" s="33"/>
+      <c r="G7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="67"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="9"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="63"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="63"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="39"/>
-      <c r="G8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="51" t="s">
-        <v>67</v>
-      </c>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="33"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="67"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="67"/>
       <c r="O8" s="8"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="9"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="79"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="79"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="63"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="63"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="39"/>
-      <c r="G9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="9" t="s">
+    <row r="9" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="33"/>
+      <c r="F9"/>
+      <c r="G9" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="42" t="s">
         <v>67</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="9" t="s">
+      <c r="K9" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="42" t="s">
         <v>67</v>
       </c>
+      <c r="N9"/>
       <c r="O9" s="8"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="9"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="79"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="79"/>
+      <c r="R9"/>
+      <c r="S9" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" s="63"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="39"/>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="33"/>
       <c r="G10" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>67</v>
+        <v>4</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>65</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="9"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="82"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="79"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="63"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="63"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="39"/>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="33"/>
       <c r="G11" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="9"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="63"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="63"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="33"/>
+      <c r="G12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="9"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="63"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="63"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="33"/>
+      <c r="G13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="9"/>
-      <c r="O11" s="8" t="s">
+      <c r="I13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="9"/>
+      <c r="O13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="S13" s="62"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="63"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="63"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="33"/>
+      <c r="G14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="S14" s="62"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="63"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="63"/>
+    </row>
+    <row r="15" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="33"/>
+      <c r="F15"/>
+      <c r="G15" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="S11" s="81"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="79"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="79"/>
+      <c r="Q15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R15"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="63"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="33"/>
+      <c r="G16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="S16" s="62"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="63"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="63"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="39"/>
-      <c r="G12" s="15" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="33"/>
+      <c r="G17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="S12" s="83"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="84"/>
-      <c r="W12" s="81"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="79"/>
-    </row>
-    <row r="13" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="G13" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O13" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="P13" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="S13" s="78"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="82"/>
-      <c r="W13" s="83"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="84"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="39"/>
-      <c r="G14" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="S14" s="80"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="79"/>
-      <c r="W14" s="81"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="79"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="39"/>
-      <c r="G15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="S15" s="81"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="79"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="79"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="39"/>
-      <c r="G16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="S16" s="81"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="79"/>
-      <c r="W16" s="81"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="79"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="39"/>
-      <c r="G17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="I17" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="S17" s="81"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="79"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="79"/>
+        <v>65</v>
+      </c>
+      <c r="S17" s="62"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="63"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="63"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="39"/>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="33"/>
       <c r="G18" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="S18" s="62"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="63"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="63"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="33"/>
+      <c r="G19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="S19" s="62"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="63"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="63"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="33"/>
+      <c r="G20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M18" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O18" s="8"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="9"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="79"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="79"/>
-    </row>
-    <row r="19" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="G19" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="L19" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O19" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="P19" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="S19" s="83"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="84"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="84"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="39"/>
-      <c r="G20" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="I20" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="8" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="9"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="79"/>
-      <c r="W20" s="81"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="79"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="63"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="63"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
+    <row r="21" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="33"/>
+      <c r="F21"/>
+      <c r="G21" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R21"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="63"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="33"/>
+      <c r="G22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="9"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="63"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="63"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="39"/>
-      <c r="G21" s="15" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="33"/>
+      <c r="G23" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="16"/>
-      <c r="O21" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="S21" s="85"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="86"/>
-      <c r="W21" s="85"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="86"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="39"/>
-      <c r="G22" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="16"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="9"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="86"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="86"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
-      <c r="G23" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="I23" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="15"/>
       <c r="L23" s="4"/>
       <c r="M23" s="16"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="9"/>
-      <c r="S23" s="85"/>
+      <c r="O23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="S23" s="62"/>
       <c r="T23" s="4"/>
-      <c r="U23" s="86"/>
-      <c r="W23" s="85"/>
+      <c r="U23" s="63"/>
+      <c r="W23" s="62"/>
       <c r="X23" s="4"/>
-      <c r="Y23" s="86"/>
+      <c r="Y23" s="63"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="40"/>
-      <c r="G24" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I24" s="12" t="s">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="33"/>
+      <c r="G24" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="16"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="9"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="63"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="63"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="33"/>
+      <c r="G25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="16"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="9"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="63"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="63"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="33"/>
+      <c r="G26" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="O24" s="10" t="s">
+      <c r="P26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P24" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q24" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="S24" s="87"/>
-      <c r="T24" s="88"/>
-      <c r="U24" s="89"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="88"/>
-      <c r="Y24" s="89"/>
+      <c r="Q26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S26" s="62"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="63"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="63"/>
     </row>
-    <row r="25" spans="1:25" ht="7.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G25" s="6"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="7"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="7"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="61"/>
-      <c r="V25" s="62"/>
-      <c r="W25" s="60"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="7"/>
-    </row>
-    <row r="26" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="M26" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="P26" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q26" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="S26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="T26" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="U26" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="W26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="X26" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y26" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="36"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="9"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="9"/>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="52"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="33"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="16"/>
       <c r="O27" s="8"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="9"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="9"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="9"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="63"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="63"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="96" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="97"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="36"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="9"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="9"/>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="52"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="33"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="16"/>
       <c r="O28" s="8"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="9"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="9"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="9"/>
+      <c r="S28" s="62"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="63"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="63"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="36"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="9"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="9"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="9"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="9"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="9"/>
+    <row r="29" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="34"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="12"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="12"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="66"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="66"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="36"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="9"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="9"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="9"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="9"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="9"/>
+    <row r="30" spans="1:33" ht="7.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="6"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="7"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="7"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="7"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="36"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="9"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="9"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="9"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="9"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="9"/>
+    <row r="31" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="S31" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="T31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="U31" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="W31" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="X31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y31" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="36"/>
+    <row r="32" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="78"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="31"/>
       <c r="G32" s="8"/>
       <c r="H32" s="3"/>
       <c r="I32" s="9"/>
+      <c r="J32" s="1"/>
       <c r="K32" s="8"/>
       <c r="L32" s="3"/>
       <c r="M32" s="9"/>
@@ -3769,14 +3399,19 @@
       <c r="Y32" s="9"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="36"/>
+      <c r="A33" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="79"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="31"/>
       <c r="G33" s="8"/>
       <c r="H33" s="3"/>
       <c r="I33" s="9"/>
+      <c r="J33" s="1"/>
       <c r="K33" s="8"/>
       <c r="L33" s="3"/>
       <c r="M33" s="9"/>
@@ -3791,14 +3426,19 @@
       <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="36"/>
+      <c r="A34" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="79"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="31"/>
       <c r="G34" s="8"/>
       <c r="H34" s="3"/>
       <c r="I34" s="9"/>
+      <c r="J34" s="1"/>
       <c r="K34" s="8"/>
       <c r="L34" s="3"/>
       <c r="M34" s="9"/>
@@ -3812,318 +3452,287 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="9"/>
     </row>
-    <row r="35" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="37"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="12"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="12"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="12"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="12"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="12"/>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="27"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="31"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="9"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="9"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="9"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="9"/>
     </row>
-    <row r="36" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="27"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="31"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="9"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="9"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="9"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="9"/>
+    </row>
+    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="28"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="32"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="12"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="12"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="12"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="12"/>
+    </row>
+    <row r="38" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="A24:B24 A12:B12 Q12:X24 A11:B11 V10:X10 A10:B10 A8:B8 A7:B7 A6:B6 J24:P24 D6:X6 D24:H24 A23:B23 D23:P23 A22:B22 D22:P22 A21:B21 D21:P21 A20:B20 D20:P20 A19:B19 D19:P19 A18:B18 D18:P18 A17:B17 D17:P17 A16:B16 D16:P16 A15:B15 D15:P15 A14:B14 D14:P14 A13:B13 D13:P13 D12:P12 D11:X11 D10:T10 A9:B9 D9:X9 D8:X8 D7:Y7" name="Contact Fields"/>
-    <protectedRange sqref="A27:Y35 I24" name="Questionnaire"/>
+    <protectedRange sqref="V12:X12 D29:H29 A6:B29 E6:E28 S13:X29 S12:T12 S9:Y9 S10:X11 O6:X8 O9:Q29 K6:M29 G6:I28 R9:R37" name="Contact Fields"/>
+    <protectedRange sqref="I29 A36:I37 B32:I32 A33:I35 K32:M37 O32:Q37 S32:Y37" name="Questionnaire"/>
+    <protectedRange sqref="D25:D28" name="Contact Fields_7_1"/>
+    <protectedRange sqref="D24" name="Contact Fields_7_2"/>
+    <protectedRange sqref="D23" name="Contact Fields_7_3"/>
+    <protectedRange sqref="D6:D22" name="Contact Fields_7_4"/>
+    <protectedRange sqref="A32" name="Questionnaire_1"/>
   </protectedRanges>
-  <mergeCells count="13">
+  <mergeCells count="10">
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A25:AG25 A24:B24 J7 Q15:AG24 N7:R7 V12:AG14 U6:U7 V7 Z7:AG7 J24:P24 D24:H24 D15:P23 D12:R14 B7:B23 D8:AG11 D7:F7">
-    <cfRule type="expression" dxfId="65" priority="87">
+  <conditionalFormatting sqref="A30:I30 A29:B29 V14:V16 V9 D29:H29 S10:V13 S29:Y30 K10:M30 B6:B28 E6:E28 O6:Q30 S6:U28 S17:V28 G10:I28">
+    <cfRule type="expression" dxfId="43" priority="125">
       <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="88">
+    <cfRule type="expression" dxfId="42" priority="126">
       <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W27:Y35 S27:U35 O27:Q35 K27:M35 G27:I35">
-    <cfRule type="expression" dxfId="63" priority="85">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="86">
-      <formula>$D27="x"</formula>
+  <conditionalFormatting sqref="W32:Y37 S32:U37 O32:Q37 K32:M37 G32:I37">
+    <cfRule type="expression" dxfId="41" priority="123">
+      <formula>$C32="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="124">
+      <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A23">
-    <cfRule type="expression" dxfId="61" priority="75">
-      <formula>$C7="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="76">
-      <formula>$D7="x"</formula>
+  <conditionalFormatting sqref="A6:A28">
+    <cfRule type="expression" dxfId="39" priority="113">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="114">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="59" priority="69">
-      <formula>$C24="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="70">
-      <formula>$D24="x"</formula>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="37" priority="107">
+      <formula>$C29="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="108">
+      <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:I7">
-    <cfRule type="expression" dxfId="57" priority="67">
+  <conditionalFormatting sqref="G6:I9">
+    <cfRule type="expression" dxfId="35" priority="105">
       <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="68">
+    <cfRule type="expression" dxfId="34" priority="106">
       <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:I7">
-    <cfRule type="expression" dxfId="55" priority="91">
-      <formula>$C12="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="92">
-      <formula>$D12="x"</formula>
+  <conditionalFormatting sqref="G9:I9">
+    <cfRule type="expression" dxfId="33" priority="129">
+      <formula>$C14="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="130">
+      <formula>$D14="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S12:U12">
-    <cfRule type="expression" dxfId="53" priority="61">
-      <formula>$C12="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="62">
-      <formula>$D12="x"</formula>
+  <conditionalFormatting sqref="S14:U14">
+    <cfRule type="expression" dxfId="31" priority="99">
+      <formula>$C14="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="100">
+      <formula>$D14="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S13:U14">
-    <cfRule type="expression" dxfId="51" priority="53">
-      <formula>$C13="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="54">
-      <formula>$D13="x"</formula>
+  <conditionalFormatting sqref="S15:U16">
+    <cfRule type="expression" dxfId="29" priority="91">
+      <formula>$C15="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="92">
+      <formula>$D15="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S6:T7">
-    <cfRule type="expression" dxfId="49" priority="51">
+  <conditionalFormatting sqref="S6:T9">
+    <cfRule type="expression" dxfId="27" priority="89">
       <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="52">
+    <cfRule type="expression" dxfId="26" priority="90">
       <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W7:Y7">
-    <cfRule type="expression" dxfId="47" priority="47">
-      <formula>$C7="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="48">
-      <formula>$D7="x"</formula>
+  <conditionalFormatting sqref="K9:M9">
+    <cfRule type="expression" dxfId="25" priority="81">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="82">
+      <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:M7">
-    <cfRule type="expression" dxfId="45" priority="43">
-      <formula>$C7="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="44">
-      <formula>$D7="x"</formula>
+  <conditionalFormatting sqref="K9:M9">
+    <cfRule type="expression" dxfId="23" priority="83">
+      <formula>$C14="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="84">
+      <formula>$D14="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:M7">
-    <cfRule type="expression" dxfId="43" priority="45">
-      <formula>$C12="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="46">
-      <formula>$D12="x"</formula>
+  <conditionalFormatting sqref="K6:M8">
+    <cfRule type="expression" dxfId="21" priority="79">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="80">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:M6">
-    <cfRule type="expression" dxfId="41" priority="41">
+  <conditionalFormatting sqref="C25:C28">
+    <cfRule type="expression" dxfId="19" priority="73">
+      <formula>$C25="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="74">
+      <formula>$D25="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C28">
+    <cfRule type="expression" dxfId="17" priority="71">
       <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="42">
-      <formula>$D6="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="39" priority="39">
-      <formula>$C6="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="40">
+    <cfRule type="expression" dxfId="16" priority="72">
       <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="35" priority="35">
+    <cfRule type="expression" dxfId="15" priority="69">
       <formula>$C23="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="36">
+    <cfRule type="expression" dxfId="14" priority="70">
       <formula>$D23="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="33" priority="33">
-      <formula>$C22="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="34">
-      <formula>$D22="x"</formula>
+  <conditionalFormatting sqref="C6:C22">
+    <cfRule type="expression" dxfId="13" priority="67">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="68">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="31" priority="31">
-      <formula>$C21="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
-      <formula>$D21="x"</formula>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="11" priority="39">
+      <formula>$C29="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="40">
+      <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="29" priority="29">
-      <formula>$C20="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
-      <formula>$D20="x"</formula>
+  <conditionalFormatting sqref="D6:D22">
+    <cfRule type="expression" dxfId="9" priority="27">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="28">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="27" priority="27">
-      <formula>$C19="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28">
-      <formula>$D19="x"</formula>
+  <conditionalFormatting sqref="D25:D28">
+    <cfRule type="expression" dxfId="7" priority="33">
+      <formula>$C25="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="34">
+      <formula>$D25="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="25" priority="25">
-      <formula>$C18="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26">
-      <formula>$D18="x"</formula>
+  <conditionalFormatting sqref="D6:D28">
+    <cfRule type="expression" dxfId="5" priority="31">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="32">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="23" priority="23">
-      <formula>$C17="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
-      <formula>$D17="x"</formula>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="3" priority="29">
+      <formula>$C23="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="30">
+      <formula>$D23="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="21" priority="21">
-      <formula>$C16="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
-      <formula>$D16="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="19" priority="19">
-      <formula>$C15="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>$D15="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>$C14="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>$D14="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>$C13="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>$D13="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>$C12="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>$D12="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$C11="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$D11="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$C10="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$D10="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$C9="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$D9="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C7="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D7="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="W6:Y28">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C24="x"</formula>
+      <formula>$C6="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D24="x"</formula>
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D7 C6 C8:C24" xr:uid="{800895DA-5639-438C-B977-CBBACBEDFF96}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21:D28 C21:C29 C6:D20" xr:uid="{800895DA-5639-438C-B977-CBBACBEDFF96}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D24 D6" xr:uid="{25196C70-295C-43FF-A050-7D2EA327A7B4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29" xr:uid="{25196C70-295C-43FF-A050-7D2EA327A7B4}">
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD1" xr:uid="{1CF26B28-1967-426C-8B8F-6D82F1D1CF4B}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6:Y24 U6:U24 Q6:Q24 M6:M24 I6:I24 Y27:Y35 U27:U35 Q27:Q35 M27:M35 I27:I35" xr:uid="{075AC0D6-992F-42FC-B5BD-F2F852CD6451}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6:Y29 U6:U29 Q6:Q29 M6:M29 I6:I29 I32:I37 M32:M37 Q32:Q37 U32:U37 Y32:Y37" xr:uid="{075AC0D6-992F-42FC-B5BD-F2F852CD6451}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4134,21 +3743,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -4357,32 +3951,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4399,4 +3983,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Salesforce_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Salesforce_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03303EF6-9BA0-4F82-9A4B-39639F2F17EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1DB039-0149-4687-9013-030153D7C2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="6285" windowWidth="18255" windowHeight="5385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -1177,18 +1177,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1215,6 +1203,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2257,30 +2257,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O3" sqref="O3:Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.81640625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="1.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.7265625" customWidth="1"/>
+    <col min="4" max="4" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="1.7265625" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" customWidth="1"/>
+    <col min="10" max="10" width="1.7265625" customWidth="1"/>
     <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.7265625" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.7109375" customWidth="1"/>
+    <col min="18" max="18" width="1.7265625" customWidth="1"/>
     <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="1.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="1.54296875" customWidth="1" outlineLevel="1"/>
     <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="22" t="s">
         <v>33</v>
       </c>
@@ -2291,11 +2291,11 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G2" s="39"/>
       <c r="K2" s="39"/>
     </row>
-    <row r="3" spans="1:33" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="75.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
@@ -2307,35 +2307,35 @@
         <v>64</v>
       </c>
       <c r="E3" s="30"/>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="71" t="s">
+      <c r="K3" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="O3" s="71" t="s">
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="O3" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="S3" s="68" t="s">
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="S3" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="69"/>
-      <c r="U3" s="70"/>
-      <c r="W3" s="68" t="s">
+      <c r="T3" s="78"/>
+      <c r="U3" s="79"/>
+      <c r="W3" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="70"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="79"/>
     </row>
-    <row r="4" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:33" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="56" t="s">
         <v>26</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A6" s="52" t="s">
         <v>74</v>
       </c>
@@ -2429,7 +2429,7 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="63"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="52" t="s">
         <v>77</v>
       </c>
@@ -2464,7 +2464,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="63"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="52"/>
       <c r="B8" s="24"/>
       <c r="C8" s="47"/>
@@ -2487,7 +2487,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="63"/>
     </row>
-    <row r="9" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="52" t="s">
         <v>37</v>
       </c>
@@ -2539,7 +2539,7 @@
       <c r="AF9"/>
       <c r="AG9"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="52" t="s">
         <v>38</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="63"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="52" t="s">
         <v>39</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="63"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="52" t="s">
         <v>40</v>
       </c>
@@ -2650,7 +2650,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="63"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" s="52" t="s">
         <v>41</v>
       </c>
@@ -2687,7 +2687,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="63"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="52" t="s">
         <v>44</v>
       </c>
@@ -2730,7 +2730,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="63"/>
     </row>
-    <row r="15" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="52" t="s">
         <v>45</v>
       </c>
@@ -2784,7 +2784,7 @@
       <c r="AF15"/>
       <c r="AG15"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" s="52" t="s">
         <v>48</v>
       </c>
@@ -2827,7 +2827,7 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="63"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="52" t="s">
         <v>46</v>
       </c>
@@ -2870,7 +2870,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="63"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="52" t="s">
         <v>47</v>
       </c>
@@ -2913,7 +2913,7 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="63"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="52" t="s">
         <v>42</v>
       </c>
@@ -2956,7 +2956,7 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="63"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="52" t="s">
         <v>43</v>
       </c>
@@ -2993,7 +2993,7 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="63"/>
     </row>
-    <row r="21" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="52" t="s">
         <v>2</v>
       </c>
@@ -3047,7 +3047,7 @@
       <c r="AF21"/>
       <c r="AG21"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="52" t="s">
         <v>1</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="63"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="52" t="s">
         <v>0</v>
       </c>
@@ -3121,7 +3121,7 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="63"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="52" t="s">
         <v>53</v>
       </c>
@@ -3152,7 +3152,7 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="63"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="52" t="s">
         <v>54</v>
       </c>
@@ -3183,7 +3183,7 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="63"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="52" t="s">
         <v>55</v>
       </c>
@@ -3226,7 +3226,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="63"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" s="52"/>
       <c r="B27" s="24"/>
       <c r="C27" s="47"/>
@@ -3249,7 +3249,7 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="63"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" s="52"/>
       <c r="B28" s="24"/>
       <c r="C28" s="47"/>
@@ -3272,7 +3272,7 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="63"/>
     </row>
-    <row r="29" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="21"/>
       <c r="B29" s="25"/>
       <c r="C29" s="48"/>
@@ -3295,7 +3295,7 @@
       <c r="X29" s="65"/>
       <c r="Y29" s="66"/>
     </row>
-    <row r="30" spans="1:33" ht="7.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" ht="7.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
       <c r="I30" s="7"/>
@@ -3314,7 +3314,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="7"/>
     </row>
-    <row r="31" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="55" t="s">
         <v>28</v>
       </c>
@@ -3373,13 +3373,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A32" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="78"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="80"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="76"/>
       <c r="E32" s="31"/>
       <c r="G32" s="8"/>
       <c r="H32" s="3"/>
@@ -3398,15 +3398,15 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="9"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="80"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
       <c r="E33" s="31"/>
       <c r="G33" s="8"/>
       <c r="H33" s="3"/>
@@ -3425,15 +3425,15 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="9"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="76"/>
       <c r="E34" s="31"/>
       <c r="G34" s="8"/>
       <c r="H34" s="3"/>
@@ -3452,7 +3452,7 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="9"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="27"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
@@ -3475,11 +3475,11 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="9"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="27"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="74"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="70"/>
       <c r="E36" s="31"/>
       <c r="G36" s="8"/>
       <c r="H36" s="3"/>
@@ -3498,11 +3498,11 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="9"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="28"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="77"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="73"/>
       <c r="E37" s="32"/>
       <c r="G37" s="10"/>
       <c r="H37" s="11"/>
@@ -3521,7 +3521,7 @@
       <c r="X37" s="11"/>
       <c r="Y37" s="12"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
@@ -3534,16 +3534,16 @@
     <protectedRange sqref="A32" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="10">
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A30:I30 A29:B29 V14:V16 V9 D29:H29 S10:V13 S29:Y30 K10:M30 B6:B28 E6:E28 O6:Q30 S6:U28 S17:V28 G10:I28">
@@ -3743,6 +3743,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -3951,15 +3960,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3967,6 +3967,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3981,14 +3989,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Salesforce_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Salesforce_DE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1DB039-0149-4687-9013-030153D7C2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A8DADA-6801-4A77-A3AA-7280F19BAB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -1177,6 +1177,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1203,18 +1215,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2257,30 +2257,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:Q3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I32" activeCellId="9" sqref="I6:I29 M6:M29 Q6:Q29 U6:U29 Y6:Y29 Y32:Y37 U32:U37 Q32:Q37 M32:M37 I32:I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.81640625" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.7265625" customWidth="1"/>
-    <col min="4" max="4" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
-    <col min="6" max="6" width="1.7265625" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.7265625" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" customWidth="1"/>
     <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.7265625" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.7265625" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" customWidth="1"/>
     <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="1.54296875" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="1.5703125" customWidth="1" outlineLevel="1"/>
     <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>33</v>
       </c>
@@ -2291,11 +2291,11 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" s="39"/>
       <c r="K2" s="39"/>
     </row>
-    <row r="3" spans="1:33" ht="75.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
@@ -2307,35 +2307,35 @@
         <v>64</v>
       </c>
       <c r="E3" s="30"/>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="80" t="s">
+      <c r="K3" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="O3" s="80" t="s">
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="O3" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="S3" s="77" t="s">
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="S3" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="78"/>
-      <c r="U3" s="79"/>
-      <c r="W3" s="77" t="s">
+      <c r="T3" s="69"/>
+      <c r="U3" s="70"/>
+      <c r="W3" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="79"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="70"/>
     </row>
-    <row r="4" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:33" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
         <v>26</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>74</v>
       </c>
@@ -2429,7 +2429,7 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="63"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>77</v>
       </c>
@@ -2464,7 +2464,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="63"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
       <c r="B8" s="24"/>
       <c r="C8" s="47"/>
@@ -2487,7 +2487,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="63"/>
     </row>
-    <row r="9" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>37</v>
       </c>
@@ -2539,7 +2539,7 @@
       <c r="AF9"/>
       <c r="AG9"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
         <v>38</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="63"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
         <v>39</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="63"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
         <v>40</v>
       </c>
@@ -2650,7 +2650,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="63"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>41</v>
       </c>
@@ -2687,7 +2687,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="63"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
         <v>44</v>
       </c>
@@ -2730,7 +2730,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="63"/>
     </row>
-    <row r="15" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
         <v>45</v>
       </c>
@@ -2784,7 +2784,7 @@
       <c r="AF15"/>
       <c r="AG15"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>48</v>
       </c>
@@ -2827,7 +2827,7 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="63"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>46</v>
       </c>
@@ -2870,7 +2870,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="63"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>47</v>
       </c>
@@ -2913,7 +2913,7 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="63"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>42</v>
       </c>
@@ -2956,7 +2956,7 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="63"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>43</v>
       </c>
@@ -2993,7 +2993,7 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="63"/>
     </row>
-    <row r="21" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>2</v>
       </c>
@@ -3047,7 +3047,7 @@
       <c r="AF21"/>
       <c r="AG21"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
         <v>1</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="63"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>0</v>
       </c>
@@ -3121,7 +3121,7 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="63"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>53</v>
       </c>
@@ -3152,7 +3152,7 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="63"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>54</v>
       </c>
@@ -3183,7 +3183,7 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="63"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>55</v>
       </c>
@@ -3226,7 +3226,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="63"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
       <c r="B27" s="24"/>
       <c r="C27" s="47"/>
@@ -3249,7 +3249,7 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="63"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="52"/>
       <c r="B28" s="24"/>
       <c r="C28" s="47"/>
@@ -3272,7 +3272,7 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="63"/>
     </row>
-    <row r="29" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
       <c r="B29" s="25"/>
       <c r="C29" s="48"/>
@@ -3295,7 +3295,7 @@
       <c r="X29" s="65"/>
       <c r="Y29" s="66"/>
     </row>
-    <row r="30" spans="1:33" ht="7.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:33" ht="7.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
       <c r="I30" s="7"/>
@@ -3314,7 +3314,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="7"/>
     </row>
-    <row r="31" spans="1:33" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="55" t="s">
         <v>28</v>
       </c>
@@ -3373,13 +3373,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="76"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="80"/>
       <c r="E32" s="31"/>
       <c r="G32" s="8"/>
       <c r="H32" s="3"/>
@@ -3398,15 +3398,15 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="9"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="76"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="80"/>
       <c r="E33" s="31"/>
       <c r="G33" s="8"/>
       <c r="H33" s="3"/>
@@ -3425,15 +3425,15 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="9"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="76"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="80"/>
       <c r="E34" s="31"/>
       <c r="G34" s="8"/>
       <c r="H34" s="3"/>
@@ -3452,7 +3452,7 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="9"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
@@ -3475,11 +3475,11 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="9"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="70"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="74"/>
       <c r="E36" s="31"/>
       <c r="G36" s="8"/>
       <c r="H36" s="3"/>
@@ -3498,11 +3498,11 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="9"/>
     </row>
-    <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="73"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="77"/>
       <c r="E37" s="32"/>
       <c r="G37" s="10"/>
       <c r="H37" s="11"/>
@@ -3521,7 +3521,7 @@
       <c r="X37" s="11"/>
       <c r="Y37" s="12"/>
     </row>
-    <row r="38" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
@@ -3534,16 +3534,16 @@
     <protectedRange sqref="A32" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="10">
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A30:I30 A29:B29 V14:V16 V9 D29:H29 S10:V13 S29:Y30 K10:M30 B6:B28 E6:E28 O6:Q30 S6:U28 S17:V28 G10:I28">
@@ -3732,8 +3732,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD1" xr:uid="{1CF26B28-1967-426C-8B8F-6D82F1D1CF4B}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6:Y29 U6:U29 Q6:Q29 M6:M29 I6:I29 I32:I37 M32:M37 Q32:Q37 U32:U37 Y32:Y37" xr:uid="{075AC0D6-992F-42FC-B5BD-F2F852CD6451}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I29 M6:M29 Q6:Q29 U6:U29 Y6:Y29 Y32:Y37 U32:U37 Q32:Q37 M32:M37 I32:I37" xr:uid="{5AB8B9CA-083C-4B30-91F6-F37FB0D7B66E}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3743,15 +3743,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -3960,6 +3951,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3967,14 +3967,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3989,6 +3981,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
